--- a/medicine/Psychotrope/Quater/Quater.xlsx
+++ b/medicine/Psychotrope/Quater/Quater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le quater ou shuffle[1], est un jeu à boire dont le but est de faire rebondir une pièce sur un support pour la rentrer dans un verre. Il a été grandement démocratisé dans la Qave d'une école de commerce dénommé le Quatter Lounge Bar.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le quater ou shuffle, est un jeu à boire dont le but est de faire rebondir une pièce sur un support pour la rentrer dans un verre. Il a été grandement démocratisé dans la Qave d'une école de commerce dénommé le Quatter Lounge Bar.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il semble que le jeu ait été inventé a Cuvat[réf. souhaitée], très beau village de Haute Savoie[non neutre]  sous le nom de quarter (quart de cuv, monnaie Cuvatienne )pour la pièce qui est au centre du jeu. Dans son roman Moi, Charlotte Simmons, Tom Wolfe y fait référence.
 </t>
@@ -542,7 +556,9 @@
           <t>Règle du jeu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le quater se joue à un nombre quelconque de joueurs. Le support généralement utilisé est une assiette, la pièce doit être légère (20 centimes de francs pour les puristes) et le verre à moutarde si possible. Le joueur tente de faire rebondir la pièce sur l'assiette pour la mettre dans le verre. S'il y parvient, il distribue la dose contenue dans le verre à un joueur de son choix et rejoue. S'il échoue, c'est au joueur suivant.
 Lorsqu'un joueur réussit à mettre la pièce trois fois de suite, il invente une règle. Les règles générales sont donc assez simple, mais la complexité du jeu vient du grand nombre de règles rajoutées au cours d'une partie. Certaines d'entre elles sont devenues tellement courantes qu'elles sont activées "de base". Elles sont présentes dès le début du jeu et ne peuvent être supprimés.
@@ -574,7 +590,9 @@
           <t>Règles de bases</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Si rien n'est précisé, enfreindre une règle est sanctionnée d'une dose.
 Pièce tombée de la table : Il est interdit de faire tomber la pièce de la table.
@@ -612,7 +630,9 @@
           <t>Autres règles couramment ajouté par les joueurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Revanche : Lorsqu'un joueur donne la dose contenue dans le verre à un autre joueur, celui-ci peut demander une revanche. Il joue avec la même dose qu'il vient de boire, s'il gagne le joueur l'ayant sélectionner boit la dose, sinon il la boit lui-même.
 Interdire de dire le verbe "boire" et toutes ses conjugaisons.
@@ -648,7 +668,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tout jeu à boire, le quater possède un nombre infini de variantes selon les localités, les groupes de joueurs ... Cependant le conflit le plus fréquent est sans doute la question de mettre la boisson dans le verre ou non. Certains refusent pour une question d'hygiène de boire un verre contenant une pièce ; chaque joueur boira alors dans son propre verre. Les autres considèrent que c'est une base intangible du jeu, dans ce cas tout le monde boit dans le verre du jeu. La dose de base est généralement le quart d'une bière et une nouvelle règle de base qui consiste à poser la pièce avant le verre sur la table après avoir bu est ajoutée.
 Bien sûr les règles de bases changent selon les variantes, nous avons énuméré ici les plus communément admise.
@@ -681,7 +703,9 @@
           <t>A la télé</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la série That '70s show (saison 3 épisode 9, "La grande fête de Hyde"), quatre des protagonistes adolescents jouent au quater lors d'une soirée. Le personnage principal étant très mauvais et ses trois amis le faisant boire à chaque fois, il finit par vomir sur les chaussures de son père en rentrant chez lui[réf. nécessaire].
 </t>
